--- a/Result_files/V3_Bids_2020-06-15_2020-06-21.xlsx
+++ b/Result_files/V3_Bids_2020-06-15_2020-06-21.xlsx
@@ -551,7 +551,7 @@
         <v>47.8</v>
       </c>
       <c r="G2" t="n">
-        <v>14.253</v>
+        <v>14.25299999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>10.551</v>
       </c>
       <c r="J2" t="n">
-        <v>915.5326323047532</v>
+        <v>915.5326323047527</v>
       </c>
       <c r="K2" t="n">
         <v>18.9</v>
@@ -598,7 +598,7 @@
         <v>110.35</v>
       </c>
       <c r="D3" t="n">
-        <v>37.6</v>
+        <v>47.8</v>
       </c>
       <c r="E3" t="n">
         <v>0.26</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1286.422284884772</v>
+        <v>1603.054097364598</v>
       </c>
       <c r="K3" t="n">
         <v>16.30001</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1595.122708568402</v>
+        <v>1596.62713920645</v>
       </c>
       <c r="K4" t="n">
         <v>15.45</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.94272095948848</v>
+        <v>1623.83568957539</v>
       </c>
       <c r="K5" t="n">
         <v>15.66</v>
@@ -766,7 +766,7 @@
         <v>110.35</v>
       </c>
       <c r="D6" t="n">
-        <v>8.200000000000003</v>
+        <v>46.3</v>
       </c>
       <c r="E6" t="n">
         <v>0.26</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-148.6129049999999</v>
+        <v>1598.229873602623</v>
       </c>
       <c r="K6" t="n">
         <v>15.57</v>
@@ -828,19 +828,19 @@
         <v>0.26</v>
       </c>
       <c r="F7" t="n">
-        <v>43.7</v>
+        <v>47.8</v>
       </c>
       <c r="G7" t="n">
         <v>14.84499999999997</v>
       </c>
       <c r="H7" t="n">
-        <v>4.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.59199999999993</v>
+        <v>14.631</v>
       </c>
       <c r="J7" t="n">
-        <v>-933.5098346999996</v>
+        <v>734.3828927103046</v>
       </c>
       <c r="K7" t="n">
         <v>17.51</v>
@@ -884,19 +884,19 @@
         <v>0.4</v>
       </c>
       <c r="F8" t="n">
-        <v>47.8</v>
+        <v>14.6</v>
       </c>
       <c r="G8" t="n">
         <v>10.60999999999996</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>33.2</v>
       </c>
       <c r="I8" t="n">
-        <v>14.494</v>
+        <v>14.49000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>-1581.347021588372</v>
+        <v>-840.5444725399992</v>
       </c>
       <c r="K8" t="n">
         <v>22.940001</v>
@@ -940,19 +940,19 @@
         <v>0.4</v>
       </c>
       <c r="F9" t="n">
-        <v>47.8</v>
+        <v>29.1</v>
       </c>
       <c r="G9" t="n">
         <v>10.15299999999996</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="I9" t="n">
-        <v>13.851</v>
+        <v>13.84699999999992</v>
       </c>
       <c r="J9" t="n">
-        <v>-2759.190202654721</v>
+        <v>-815.4019450368443</v>
       </c>
       <c r="K9" t="n">
         <v>25.549999</v>
@@ -996,19 +996,19 @@
         <v>0.4</v>
       </c>
       <c r="F10" t="n">
-        <v>47.8</v>
+        <v>42.3</v>
       </c>
       <c r="G10" t="n">
         <v>10.15299999999996</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
-        <v>13.851</v>
+        <v>13.84699999999992</v>
       </c>
       <c r="J10" t="n">
-        <v>-3714.310837660746</v>
+        <v>-817.7173019600003</v>
       </c>
       <c r="K10" t="n">
         <v>25.16</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-3323.313367563383</v>
+        <v>-631.2448998785801</v>
       </c>
       <c r="K11" t="n">
         <v>22.99</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-3327.018466747755</v>
+        <v>-1532.517714237353</v>
       </c>
       <c r="K12" t="n">
         <v>20.15</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-3378.06526062227</v>
+        <v>-1932.827350835396</v>
       </c>
       <c r="K13" t="n">
         <v>18.950001</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-3079.85331691787</v>
+        <v>-1696.145002590322</v>
       </c>
       <c r="K14" t="n">
         <v>18</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-2736.41392579263</v>
+        <v>-807.3419066496118</v>
       </c>
       <c r="K15" t="n">
         <v>17.30001</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-2315.513100602252</v>
+        <v>-402.5676336372418</v>
       </c>
       <c r="K16" t="n">
         <v>16.9</v>
@@ -1388,19 +1388,19 @@
         <v>0.4</v>
       </c>
       <c r="F17" t="n">
-        <v>47.8</v>
+        <v>43</v>
       </c>
       <c r="G17" t="n">
-        <v>7.427</v>
+        <v>7.426999999999964</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>12.01</v>
+        <v>12.00599999999991</v>
       </c>
       <c r="J17" t="n">
-        <v>-2339.032380368471</v>
+        <v>-691.1550989870129</v>
       </c>
       <c r="K17" t="n">
         <v>16.190001</v>
@@ -1444,19 +1444,19 @@
         <v>0.4</v>
       </c>
       <c r="F18" t="n">
-        <v>47.8</v>
+        <v>45.40000000000001</v>
       </c>
       <c r="G18" t="n">
         <v>7.426999999999964</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I18" t="n">
-        <v>12.01</v>
+        <v>12.00599999999991</v>
       </c>
       <c r="J18" t="n">
-        <v>-1846.537996414537</v>
+        <v>-689.8086681400002</v>
       </c>
       <c r="K18" t="n">
         <v>15.48</v>
@@ -1500,19 +1500,19 @@
         <v>0.4</v>
       </c>
       <c r="F19" t="n">
-        <v>47.8</v>
+        <v>13.5</v>
       </c>
       <c r="G19" t="n">
-        <v>7.427</v>
+        <v>7.426999999999964</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="I19" t="n">
-        <v>12.01</v>
+        <v>12.00599999999991</v>
       </c>
       <c r="J19" t="n">
-        <v>-1455.579377237072</v>
+        <v>-711.3391935300002</v>
       </c>
       <c r="K19" t="n">
         <v>19.99</v>
@@ -1556,19 +1556,19 @@
         <v>0.4</v>
       </c>
       <c r="F20" t="n">
-        <v>47.8</v>
+        <v>6.100000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>8.179000000000009</v>
+        <v>8.178999999999917</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="I20" t="n">
-        <v>11.82</v>
+        <v>11.81599999999997</v>
       </c>
       <c r="J20" t="n">
-        <v>-728.2417311112599</v>
+        <v>-710.55179643</v>
       </c>
       <c r="K20" t="n">
         <v>22.99</v>
@@ -1612,19 +1612,19 @@
         <v>0.4</v>
       </c>
       <c r="F21" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>8.178999999999917</v>
+        <v>14.424</v>
       </c>
       <c r="H21" t="n">
-        <v>33.4</v>
+        <v>47.8</v>
       </c>
       <c r="I21" t="n">
-        <v>11.816</v>
+        <v>11.81599999999997</v>
       </c>
       <c r="J21" t="n">
-        <v>-709.4400570800004</v>
+        <v>-330.063138584236</v>
       </c>
       <c r="K21" t="n">
         <v>26.15</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>9.077000000000005</v>
+        <v>14.424</v>
       </c>
       <c r="H22" t="n">
         <v>47.8</v>
@@ -1680,7 +1680,7 @@
         <v>11.81599999999997</v>
       </c>
       <c r="J22" t="n">
-        <v>-497.53623078705</v>
+        <v>-285.1814509581451</v>
       </c>
       <c r="K22" t="n">
         <v>26.110001</v>
@@ -1733,10 +1733,10 @@
         <v>47.8</v>
       </c>
       <c r="I23" t="n">
-        <v>12.397</v>
+        <v>12.39699999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>-327.4664031858463</v>
+        <v>-327.4664031858468</v>
       </c>
       <c r="K23" t="n">
         <v>27.16</v>
@@ -1789,10 +1789,10 @@
         <v>47.8</v>
       </c>
       <c r="I24" t="n">
-        <v>12.397</v>
+        <v>12.39699999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>-355.7544937552688</v>
+        <v>-355.7544937552674</v>
       </c>
       <c r="K24" t="n">
         <v>25.49999</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.424</v>
+        <v>14.642</v>
       </c>
       <c r="H25" t="n">
         <v>47.8</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.26</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>10.551</v>
       </c>
       <c r="J26" t="n">
-        <v>-300.373289896037</v>
+        <v>-300.3732898960395</v>
       </c>
       <c r="K26" t="n">
         <v>26.59999</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.4969950752971</v>
+        <v>168.496995075298</v>
       </c>
       <c r="K27" t="n">
         <v>22.75</v>
@@ -1998,7 +1998,7 @@
         <v>118</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>32.4</v>
       </c>
       <c r="E28" t="n">
         <v>0.1299999999996544</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>161.1981592273621</v>
+        <v>1283.748469796099</v>
       </c>
       <c r="K28" t="n">
         <v>21.7</v>
@@ -2054,7 +2054,7 @@
         <v>118</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E29" t="n">
         <v>0.1299999999996544</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.5444020001833</v>
+        <v>1741.383312088975</v>
       </c>
       <c r="K29" t="n">
         <v>19.43</v>
@@ -2110,7 +2110,7 @@
         <v>118</v>
       </c>
       <c r="D30" t="n">
-        <v>26.9</v>
+        <v>47.8</v>
       </c>
       <c r="E30" t="n">
         <v>0.1299999999996544</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>288.3304292694359</v>
+        <v>1730.219987636782</v>
       </c>
       <c r="K30" t="n">
         <v>18.959999</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.26</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F31" t="n">
         <v>47.8</v>
@@ -2184,7 +2184,7 @@
         <v>14.59199999999993</v>
       </c>
       <c r="J31" t="n">
-        <v>-270.6832960351829</v>
+        <v>713.5589196854178</v>
       </c>
       <c r="K31" t="n">
         <v>18.959999</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4</v>
+        <v>0.2999999999999545</v>
       </c>
       <c r="F32" t="n">
         <v>47.8</v>
@@ -2240,7 +2240,7 @@
         <v>14.49000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>-1162.831244849045</v>
+        <v>-407.1330340798719</v>
       </c>
       <c r="K32" t="n">
         <v>21.559999</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4</v>
+        <v>0.2999999999999545</v>
       </c>
       <c r="F33" t="n">
         <v>47.8</v>
@@ -2296,7 +2296,7 @@
         <v>13.84699999999992</v>
       </c>
       <c r="J33" t="n">
-        <v>-1534.554263255349</v>
+        <v>-1221.791089099236</v>
       </c>
       <c r="K33" t="n">
         <v>26.59999</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4</v>
+        <v>0.2999999999999545</v>
       </c>
       <c r="F34" t="n">
         <v>47.8</v>
@@ -2352,7 +2352,7 @@
         <v>13.84699999999992</v>
       </c>
       <c r="J34" t="n">
-        <v>-2029.928073033714</v>
+        <v>-1586.896319433535</v>
       </c>
       <c r="K34" t="n">
         <v>30</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-3087.240745863397</v>
+        <v>-990.7220922177563</v>
       </c>
       <c r="K35" t="n">
         <v>28.959999</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-2685.881546030633</v>
+        <v>-2175.063592201941</v>
       </c>
       <c r="K36" t="n">
         <v>26.59999</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-2653.342740853426</v>
+        <v>-1850.568124998767</v>
       </c>
       <c r="K37" t="n">
         <v>25.51</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-2999.035964985112</v>
+        <v>-2371.745450155107</v>
       </c>
       <c r="K38" t="n">
         <v>23.889999</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-2730.30581342059</v>
+        <v>-1536.793225990005</v>
       </c>
       <c r="K39" t="n">
         <v>21.99</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-1933.816234556173</v>
+        <v>-902.6935468372291</v>
       </c>
       <c r="K40" t="n">
         <v>20.5</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4</v>
+        <v>0.2999999999999545</v>
       </c>
       <c r="F41" t="n">
         <v>47.8</v>
@@ -2744,7 +2744,7 @@
         <v>12.01</v>
       </c>
       <c r="J41" t="n">
-        <v>-2083.470393285046</v>
+        <v>-1010.252084602394</v>
       </c>
       <c r="K41" t="n">
         <v>19.1</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4</v>
+        <v>0.2999999999999545</v>
       </c>
       <c r="F42" t="n">
         <v>47.8</v>
@@ -2800,7 +2800,7 @@
         <v>12.01</v>
       </c>
       <c r="J42" t="n">
-        <v>-999.6327917418552</v>
+        <v>-377.6757289130783</v>
       </c>
       <c r="K42" t="n">
         <v>19.280001</v>
@@ -2841,22 +2841,22 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4</v>
+        <v>0.2999999999999545</v>
       </c>
       <c r="F43" t="n">
-        <v>47.8</v>
+        <v>19.7</v>
       </c>
       <c r="G43" t="n">
         <v>14.416</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>28.1</v>
       </c>
       <c r="I43" t="n">
-        <v>12.01</v>
+        <v>11.959</v>
       </c>
       <c r="J43" t="n">
-        <v>-1006.633530199523</v>
+        <v>-766.7350377000007</v>
       </c>
       <c r="K43" t="n">
         <v>23.7</v>
@@ -2897,22 +2897,22 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4</v>
+        <v>0.2999999999999545</v>
       </c>
       <c r="F44" t="n">
-        <v>46.7</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>14.416</v>
+        <v>14.424</v>
       </c>
       <c r="H44" t="n">
-        <v>1.1</v>
+        <v>47.8</v>
       </c>
       <c r="I44" t="n">
         <v>11.81599999999997</v>
       </c>
       <c r="J44" t="n">
-        <v>-832.2158308999992</v>
+        <v>-684.8858455683372</v>
       </c>
       <c r="K44" t="n">
         <v>26.8</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4</v>
+        <v>0.2999999999999545</v>
       </c>
       <c r="F45" t="n">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>14.416</v>
+        <v>14.424</v>
       </c>
       <c r="H45" t="n">
-        <v>34.6</v>
+        <v>47.8</v>
       </c>
       <c r="I45" t="n">
         <v>11.81599999999997</v>
       </c>
       <c r="J45" t="n">
-        <v>-744.9334635999996</v>
+        <v>-312.9139665691068</v>
       </c>
       <c r="K45" t="n">
         <v>30.65</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4</v>
+        <v>0.2999999999999545</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>11.81599999999997</v>
       </c>
       <c r="J46" t="n">
-        <v>-555.2120418360433</v>
+        <v>-308.6344164483224</v>
       </c>
       <c r="K46" t="n">
         <v>30.17</v>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.26</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.26</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.26</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.26</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F50" t="n">
         <v>47.8</v>
@@ -3248,7 +3248,7 @@
         <v>10.551</v>
       </c>
       <c r="J50" t="n">
-        <v>1123.099645145951</v>
+        <v>1123.099645145949</v>
       </c>
       <c r="K50" t="n">
         <v>21.370001</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>168.2068529149979</v>
+        <v>168.2068529150003</v>
       </c>
       <c r="K52" t="n">
         <v>17.290001</v>
@@ -3398,7 +3398,7 @@
         <v>127.3</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E53" t="n">
         <v>0.1299999999996544</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>67.88598965605203</v>
+        <v>1803.431943385869</v>
       </c>
       <c r="K53" t="n">
         <v>16.74</v>
@@ -3454,7 +3454,7 @@
         <v>127.3</v>
       </c>
       <c r="D54" t="n">
-        <v>16.49999999999996</v>
+        <v>27</v>
       </c>
       <c r="E54" t="n">
         <v>0.1299999999996544</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>-144.7443179922572</v>
+        <v>1106.278127694181</v>
       </c>
       <c r="K54" t="n">
         <v>16.84</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.26</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F55" t="n">
         <v>47.8</v>
@@ -3528,7 +3528,7 @@
         <v>14.59199999999993</v>
       </c>
       <c r="J55" t="n">
-        <v>-944.566621763849</v>
+        <v>984.0061096911808</v>
       </c>
       <c r="K55" t="n">
         <v>16.18</v>
@@ -3569,22 +3569,22 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F56" t="n">
-        <v>47.8</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>10.058</v>
+        <v>10.05799999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="I56" t="n">
         <v>14.49000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>-1434.624148364775</v>
+        <v>-838.0147245274263</v>
       </c>
       <c r="K56" t="n">
         <v>17.85</v>
@@ -3625,13 +3625,13 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="F57" t="n">
         <v>47.8</v>
       </c>
       <c r="G57" t="n">
-        <v>10.058</v>
+        <v>10.05799999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3640,7 +3640,7 @@
         <v>13.84699999999992</v>
       </c>
       <c r="J57" t="n">
-        <v>-2472.485411022104</v>
+        <v>-981.709663157047</v>
       </c>
       <c r="K57" t="n">
         <v>19.77</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="F58" t="n">
         <v>47.8</v>
@@ -3696,7 +3696,7 @@
         <v>13.84699999999992</v>
       </c>
       <c r="J58" t="n">
-        <v>-3409.85838848269</v>
+        <v>-1607.152279210182</v>
       </c>
       <c r="K58" t="n">
         <v>19.559999</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-2772.292249484811</v>
+        <v>-1085.714692724215</v>
       </c>
       <c r="K59" t="n">
         <v>16.120001</v>
@@ -3790,7 +3790,7 @@
         <v>127.3</v>
       </c>
       <c r="D60" t="n">
-        <v>47.8</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="E60" t="n">
         <v>0.2599999999999909</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>-2947.511529086687</v>
+        <v>-156.3298252</v>
       </c>
       <c r="K60" t="n">
         <v>14.82</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-3135.514064431345</v>
+        <v>-1139.115569510276</v>
       </c>
       <c r="K61" t="n">
         <v>14.92</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-2095.384619252908</v>
+        <v>-994.6689220416924</v>
       </c>
       <c r="K62" t="n">
         <v>14.81</v>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>-1574.830352630224</v>
+        <v>-12.53309415422635</v>
       </c>
       <c r="K63" t="n">
         <v>13.29</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>-1101.883692723963</v>
+        <v>-197.1513740069444</v>
       </c>
       <c r="K64" t="n">
         <v>12.14</v>
@@ -4073,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="F65" t="n">
         <v>47.8</v>
       </c>
       <c r="G65" t="n">
-        <v>7.594999999999995</v>
+        <v>7.59499999999997</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>12.009</v>
       </c>
       <c r="J65" t="n">
-        <v>-1450.893376403318</v>
+        <v>-1359.762767341837</v>
       </c>
       <c r="K65" t="n">
         <v>13.9</v>
@@ -4129,13 +4129,13 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="F66" t="n">
         <v>47.8</v>
       </c>
       <c r="G66" t="n">
-        <v>7.594999999999995</v>
+        <v>7.59499999999997</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>12.009</v>
       </c>
       <c r="J66" t="n">
-        <v>-1846.717298805396</v>
+        <v>-807.9663261575337</v>
       </c>
       <c r="K66" t="n">
         <v>15.47</v>
@@ -4188,19 +4188,19 @@
         <v>0.4</v>
       </c>
       <c r="F67" t="n">
-        <v>46.2</v>
+        <v>12.8</v>
       </c>
       <c r="G67" t="n">
         <v>7.59499999999997</v>
       </c>
       <c r="H67" t="n">
-        <v>1.6</v>
+        <v>35</v>
       </c>
       <c r="I67" t="n">
-        <v>11.95899999999999</v>
+        <v>11.959</v>
       </c>
       <c r="J67" t="n">
-        <v>-693.8698361399987</v>
+        <v>-708.3851454800002</v>
       </c>
       <c r="K67" t="n">
         <v>18</v>
@@ -4241,22 +4241,22 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.53</v>
+        <v>0.3999999999996362</v>
       </c>
       <c r="F68" t="n">
-        <v>35.9</v>
+        <v>1.2</v>
       </c>
       <c r="G68" t="n">
         <v>7.596000000000004</v>
       </c>
       <c r="H68" t="n">
-        <v>11.9</v>
+        <v>46.6</v>
       </c>
       <c r="I68" t="n">
         <v>11.81599999999997</v>
       </c>
       <c r="J68" t="n">
-        <v>-703.0064206200001</v>
+        <v>-705.8117560000004</v>
       </c>
       <c r="K68" t="n">
         <v>22.9</v>
@@ -4297,22 +4297,22 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.53</v>
+        <v>0.3999999999996362</v>
       </c>
       <c r="F69" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>7.596000000000004</v>
+        <v>14.416</v>
       </c>
       <c r="H69" t="n">
-        <v>29.8</v>
+        <v>47.8</v>
       </c>
       <c r="I69" t="n">
         <v>11.81599999999997</v>
       </c>
       <c r="J69" t="n">
-        <v>-704.4535532799996</v>
+        <v>-283.8110359170749</v>
       </c>
       <c r="K69" t="n">
         <v>29.66</v>
@@ -4353,13 +4353,13 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.53</v>
+        <v>0.3999999999996362</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>7.596000000000004</v>
+        <v>14.416</v>
       </c>
       <c r="H70" t="n">
         <v>47.8</v>
@@ -4368,7 +4368,7 @@
         <v>11.81599999999997</v>
       </c>
       <c r="J70" t="n">
-        <v>-568.4502691672056</v>
+        <v>-252.3956569621365</v>
       </c>
       <c r="K70" t="n">
         <v>38.99998</v>
@@ -4409,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.26</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>11.41399999999998</v>
+        <v>14.416</v>
       </c>
       <c r="H71" t="n">
         <v>47.8</v>
@@ -4424,7 +4424,7 @@
         <v>12.39699999999999</v>
       </c>
       <c r="J71" t="n">
-        <v>-316.1117090588301</v>
+        <v>-316.1117090588317</v>
       </c>
       <c r="K71" t="n">
         <v>29.52</v>
@@ -4465,13 +4465,13 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.26</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>14.422</v>
+        <v>14.416</v>
       </c>
       <c r="H72" t="n">
         <v>47.8</v>
@@ -4480,7 +4480,7 @@
         <v>12.39699999999999</v>
       </c>
       <c r="J72" t="n">
-        <v>-346.1775459891994</v>
+        <v>-346.1775459891981</v>
       </c>
       <c r="K72" t="n">
         <v>24.120001</v>
@@ -4521,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.26</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.26</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F74" t="n">
         <v>47.8</v>
@@ -4592,7 +4592,7 @@
         <v>10.551</v>
       </c>
       <c r="J74" t="n">
-        <v>1130.962379196048</v>
+        <v>1130.962379196046</v>
       </c>
       <c r="K74" t="n">
         <v>12.83</v>
@@ -4630,7 +4630,7 @@
         <v>141.03</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E75" t="n">
         <v>0.1299999999996544</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>151.1715890712642</v>
+        <v>1797.080153551616</v>
       </c>
       <c r="K75" t="n">
         <v>12.8</v>
@@ -4686,7 +4686,7 @@
         <v>141.03</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E76" t="n">
         <v>0.1299999999996544</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>153.529436191363</v>
+        <v>1811.518579402133</v>
       </c>
       <c r="K76" t="n">
         <v>14.1</v>
@@ -4742,10 +4742,10 @@
         <v>141.03</v>
       </c>
       <c r="D77" t="n">
-        <v>44.3</v>
+        <v>47.8</v>
       </c>
       <c r="E77" t="n">
-        <v>0.26</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1132.70667993552</v>
+        <v>1724.748369257735</v>
       </c>
       <c r="K77" t="n">
         <v>12.95</v>
@@ -4798,7 +4798,7 @@
         <v>141.03</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E78" t="n">
         <v>0.1299999999996544</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>-154.269231</v>
+        <v>1758.255779696301</v>
       </c>
       <c r="K78" t="n">
         <v>13.94</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.26</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F79" t="n">
         <v>47.8</v>
@@ -4872,7 +4872,7 @@
         <v>14.59199999999993</v>
       </c>
       <c r="J79" t="n">
-        <v>-667.4819184638582</v>
+        <v>971.4370720426026</v>
       </c>
       <c r="K79" t="n">
         <v>14.29</v>
@@ -4913,22 +4913,22 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F80" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>10.60999999999996</v>
+        <v>18.083</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I80" t="n">
         <v>14.49000000000001</v>
       </c>
       <c r="J80" t="n">
-        <v>-1566.752546848562</v>
+        <v>-570.730823579676</v>
       </c>
       <c r="K80" t="n">
         <v>19.700001</v>
@@ -4969,22 +4969,22 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F81" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>10.15299999999996</v>
+        <v>17.508</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I81" t="n">
         <v>13.84699999999992</v>
       </c>
       <c r="J81" t="n">
-        <v>-2675.26164621276</v>
+        <v>-656.5465217941046</v>
       </c>
       <c r="K81" t="n">
         <v>27.940001</v>
@@ -5025,22 +5025,22 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F82" t="n">
-        <v>47.8</v>
+        <v>14.1</v>
       </c>
       <c r="G82" t="n">
         <v>10.15299999999996</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="I82" t="n">
         <v>13.84699999999992</v>
       </c>
       <c r="J82" t="n">
-        <v>-3744.773254899266</v>
+        <v>-837.4379373151105</v>
       </c>
       <c r="K82" t="n">
         <v>29.91</v>
@@ -5078,7 +5078,7 @@
         <v>141.03</v>
       </c>
       <c r="D83" t="n">
-        <v>47.8</v>
+        <v>45.5</v>
       </c>
       <c r="E83" t="n">
         <v>0.2699999999999818</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>-3224.331848835552</v>
+        <v>-170.7568384999999</v>
       </c>
       <c r="K83" t="n">
         <v>22.959999</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>-3270.582245719558</v>
+        <v>-216.6558609834591</v>
       </c>
       <c r="K84" t="n">
         <v>18.91</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-3316.158306964591</v>
+        <v>-275.1490378886407</v>
       </c>
       <c r="K85" t="n">
         <v>16.9</v>
@@ -5246,7 +5246,7 @@
         <v>141.03</v>
       </c>
       <c r="D86" t="n">
-        <v>47.8</v>
+        <v>29.2</v>
       </c>
       <c r="E86" t="n">
         <v>0.2699999999999818</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-2633.455366262715</v>
+        <v>-164.850289</v>
       </c>
       <c r="K86" t="n">
         <v>15.36</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>-2177.323267929742</v>
+        <v>30.69974852897268</v>
       </c>
       <c r="K87" t="n">
         <v>14.4</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>-2301.652030409638</v>
+        <v>-196.4069222182516</v>
       </c>
       <c r="K88" t="n">
         <v>13.26</v>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F89" t="n">
         <v>47.8</v>
@@ -5432,7 +5432,7 @@
         <v>12.009</v>
       </c>
       <c r="J89" t="n">
-        <v>-2203.588919531577</v>
+        <v>167.0072348077753</v>
       </c>
       <c r="K89" t="n">
         <v>12.85</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F90" t="n">
         <v>47.8</v>
@@ -5488,7 +5488,7 @@
         <v>12.009</v>
       </c>
       <c r="J90" t="n">
-        <v>-1599.266920063409</v>
+        <v>661.9361386107078</v>
       </c>
       <c r="K90" t="n">
         <v>13.44</v>
@@ -5529,22 +5529,22 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F91" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>7.426999999999964</v>
+        <v>14.41600000000001</v>
       </c>
       <c r="H91" t="n">
-        <v>16.8</v>
+        <v>47.8</v>
       </c>
       <c r="I91" t="n">
         <v>11.959</v>
       </c>
       <c r="J91" t="n">
-        <v>-739.93887448</v>
+        <v>-721.4798548950878</v>
       </c>
       <c r="K91" t="n">
         <v>19.7</v>
@@ -5585,22 +5585,22 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F92" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>8.179000000000009</v>
+        <v>14.424</v>
       </c>
       <c r="H92" t="n">
-        <v>32.1</v>
+        <v>47.8</v>
       </c>
       <c r="I92" t="n">
         <v>11.81599999999997</v>
       </c>
       <c r="J92" t="n">
-        <v>-731.5961230799996</v>
+        <v>-443.4311478478962</v>
       </c>
       <c r="K92" t="n">
         <v>22.469999</v>
@@ -5641,13 +5641,13 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>14.424</v>
+        <v>14.42200000000001</v>
       </c>
       <c r="H93" t="n">
         <v>47.8</v>
@@ -5656,7 +5656,7 @@
         <v>11.81599999999997</v>
       </c>
       <c r="J93" t="n">
-        <v>-686.1889002807275</v>
+        <v>-305.2488344801191</v>
       </c>
       <c r="K93" t="n">
         <v>25.700001</v>
@@ -5697,13 +5697,13 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4</v>
+        <v>0.2699999999999818</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>8.178999999999917</v>
+        <v>14.424</v>
       </c>
       <c r="H94" t="n">
         <v>47.8</v>
@@ -5712,7 +5712,7 @@
         <v>11.81599999999997</v>
       </c>
       <c r="J94" t="n">
-        <v>-319.0861677004039</v>
+        <v>-298.8105979631983</v>
       </c>
       <c r="K94" t="n">
         <v>29.709999</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.26</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>12.39699999999999</v>
       </c>
       <c r="J95" t="n">
-        <v>-342.924126654855</v>
+        <v>-342.9241266548547</v>
       </c>
       <c r="K95" t="n">
         <v>25.8</v>
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.26</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.26</v>
+        <v>0.1299999999996544</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -5880,7 +5880,7 @@
         <v>12.39699999999999</v>
       </c>
       <c r="J97" t="n">
-        <v>-388.5458761276733</v>
+        <v>-388.5458761276719</v>
       </c>
       <c r="K97" t="n">
         <v>21.40001</v>
@@ -5974,7 +5974,7 @@
         <v>110</v>
       </c>
       <c r="D99" t="n">
-        <v>38.7</v>
+        <v>47.8</v>
       </c>
       <c r="E99" t="n">
         <v>0.26</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1455.383004608771</v>
+        <v>1762.626143086683</v>
       </c>
       <c r="K99" t="n">
         <v>16.129999</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>161.1428869385768</v>
+        <v>1773.058867938581</v>
       </c>
       <c r="K100" t="n">
         <v>16.16</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>1552.652903191807</v>
+        <v>1590.488819069948</v>
       </c>
       <c r="K101" t="n">
         <v>15.66</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1076.345361138888</v>
+        <v>1582.174200707671</v>
       </c>
       <c r="K102" t="n">
         <v>16.52</v>
@@ -6207,7 +6207,7 @@
         <v>47.8</v>
       </c>
       <c r="G103" t="n">
-        <v>14.55699999999998</v>
+        <v>14.55699999999996</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>14.63</v>
       </c>
       <c r="J103" t="n">
-        <v>-169.1831074233078</v>
+        <v>817.4297256049057</v>
       </c>
       <c r="K103" t="n">
         <v>18.1</v>
@@ -6269,10 +6269,10 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>14.49</v>
+        <v>14.493</v>
       </c>
       <c r="J104" t="n">
-        <v>694.3650306605273</v>
+        <v>657.0527880147944</v>
       </c>
       <c r="K104" t="n">
         <v>21.7</v>
@@ -6316,19 +6316,19 @@
         <v>0.4</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G105" t="n">
-        <v>17.50999999999999</v>
+        <v>16</v>
       </c>
       <c r="H105" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>7.189999999999998</v>
+        <v>13.84700000000001</v>
       </c>
       <c r="J105" t="n">
-        <v>-455.17368247135</v>
+        <v>16.94526091640421</v>
       </c>
       <c r="K105" t="n">
         <v>24.99</v>
@@ -6372,19 +6372,19 @@
         <v>0.4</v>
       </c>
       <c r="F106" t="n">
-        <v>15.6</v>
+        <v>46.2</v>
       </c>
       <c r="G106" t="n">
-        <v>15.99999999999999</v>
+        <v>16</v>
       </c>
       <c r="H106" t="n">
-        <v>32.2</v>
+        <v>1.6</v>
       </c>
       <c r="I106" t="n">
         <v>7.189999999999998</v>
       </c>
       <c r="J106" t="n">
-        <v>-771.5570132485066</v>
+        <v>-946.3734020000001</v>
       </c>
       <c r="K106" t="n">
         <v>27.139999</v>
@@ -6422,7 +6422,7 @@
         <v>110</v>
       </c>
       <c r="D107" t="n">
-        <v>47.8</v>
+        <v>40.2</v>
       </c>
       <c r="E107" t="n">
         <v>0.4</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>-1680.555555165023</v>
+        <v>-154.4419080000001</v>
       </c>
       <c r="K107" t="n">
         <v>22.959999</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>-561.0870927714792</v>
+        <v>-479.9817635882641</v>
       </c>
       <c r="K108" t="n">
         <v>20.7</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>-1357.469920196627</v>
+        <v>-516.8556320127683</v>
       </c>
       <c r="K109" t="n">
         <v>20.129999</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>-978.1534957909067</v>
+        <v>522.4811127953826</v>
       </c>
       <c r="K110" t="n">
         <v>19.309999</v>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>-628.9950380109774</v>
+        <v>785.898049422551</v>
       </c>
       <c r="K111" t="n">
         <v>18.190001</v>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>-1012.32870224538</v>
+        <v>593.1600137742894</v>
       </c>
       <c r="K112" t="n">
         <v>17.709999</v>
@@ -6767,16 +6767,16 @@
         <v>47.8</v>
       </c>
       <c r="G113" t="n">
-        <v>9.762000000000002</v>
+        <v>9.762</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>6.243999999999971</v>
+        <v>12.009</v>
       </c>
       <c r="J113" t="n">
-        <v>-1731.724558808214</v>
+        <v>-222.4372787954918</v>
       </c>
       <c r="K113" t="n">
         <v>17.82</v>
@@ -6823,16 +6823,16 @@
         <v>47.8</v>
       </c>
       <c r="G114" t="n">
-        <v>9.762000000000002</v>
+        <v>9.762</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>6.243999999999971</v>
+        <v>11.95900000000002</v>
       </c>
       <c r="J114" t="n">
-        <v>-1219.854210697645</v>
+        <v>650.5498699095542</v>
       </c>
       <c r="K114" t="n">
         <v>19.30001</v>
@@ -6876,19 +6876,19 @@
         <v>0.4</v>
       </c>
       <c r="F115" t="n">
-        <v>30.1</v>
+        <v>47.8</v>
       </c>
       <c r="G115" t="n">
         <v>9.762</v>
       </c>
       <c r="H115" t="n">
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>6.243999999999986</v>
+        <v>11.95900000000002</v>
       </c>
       <c r="J115" t="n">
-        <v>-231.4431769763032</v>
+        <v>913.7101175732863</v>
       </c>
       <c r="K115" t="n">
         <v>20.940001</v>
@@ -6932,19 +6932,19 @@
         <v>0.4</v>
       </c>
       <c r="F116" t="n">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>10.43299999999999</v>
+        <v>14.422</v>
       </c>
       <c r="H116" t="n">
-        <v>35.7</v>
+        <v>47.8</v>
       </c>
       <c r="I116" t="n">
         <v>6.245000000000005</v>
       </c>
       <c r="J116" t="n">
-        <v>-649.8840400828983</v>
+        <v>-393.106686651214</v>
       </c>
       <c r="K116" t="n">
         <v>27.98</v>
@@ -6988,19 +6988,19 @@
         <v>0.4</v>
       </c>
       <c r="F117" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
         <v>10.43299999999999</v>
       </c>
       <c r="H117" t="n">
-        <v>44.6</v>
+        <v>47.8</v>
       </c>
       <c r="I117" t="n">
         <v>6.245000000000005</v>
       </c>
       <c r="J117" t="n">
-        <v>-619.0988281200001</v>
+        <v>-184.9721682735182</v>
       </c>
       <c r="K117" t="n">
         <v>36.799999</v>
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>10.43299999999999</v>
+        <v>14.422</v>
       </c>
       <c r="H118" t="n">
         <v>47.8</v>
@@ -7056,7 +7056,7 @@
         <v>6.245000000000005</v>
       </c>
       <c r="J118" t="n">
-        <v>-365.1224695955665</v>
+        <v>-187.1111831251832</v>
       </c>
       <c r="K118" t="n">
         <v>37.60001</v>
@@ -7103,13 +7103,13 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>11.41399999999999</v>
+        <v>14.422</v>
       </c>
       <c r="H119" t="n">
         <v>47.8</v>
       </c>
       <c r="I119" t="n">
-        <v>8.348000000000019</v>
+        <v>8.348000000000013</v>
       </c>
       <c r="J119" t="n">
         <v>-256.2053884351644</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>14.422</v>
+        <v>11.41399999999999</v>
       </c>
       <c r="H120" t="n">
         <v>47.8</v>
@@ -7280,7 +7280,7 @@
         <v>10.55099999999999</v>
       </c>
       <c r="J122" t="n">
-        <v>-526.1939011488705</v>
+        <v>-526.193901148873</v>
       </c>
       <c r="K122" t="n">
         <v>19.42</v>
@@ -7318,7 +7318,7 @@
         <v>125</v>
       </c>
       <c r="D123" t="n">
-        <v>47.8</v>
+        <v>5</v>
       </c>
       <c r="E123" t="n">
         <v>0.26</v>
@@ -7374,7 +7374,7 @@
         <v>125</v>
       </c>
       <c r="D124" t="n">
-        <v>47.8</v>
+        <v>5</v>
       </c>
       <c r="E124" t="n">
         <v>0.26</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>187.0511854838989</v>
+        <v>237.2892660500677</v>
       </c>
       <c r="K124" t="n">
         <v>18.219999</v>
@@ -7430,7 +7430,7 @@
         <v>125</v>
       </c>
       <c r="D125" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="E125" t="n">
         <v>0.26</v>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>427.1080901101623</v>
+        <v>321.4482893931743</v>
       </c>
       <c r="K125" t="n">
         <v>19.7</v>
@@ -7486,7 +7486,7 @@
         <v>125</v>
       </c>
       <c r="D126" t="n">
-        <v>47.8</v>
+        <v>46.5</v>
       </c>
       <c r="E126" t="n">
         <v>0.26</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1847.710195449223</v>
+        <v>1900.004951671537</v>
       </c>
       <c r="K126" t="n">
         <v>19.43</v>
@@ -7560,7 +7560,7 @@
         <v>15.065</v>
       </c>
       <c r="J127" t="n">
-        <v>912.8595309987684</v>
+        <v>1054.513245532561</v>
       </c>
       <c r="K127" t="n">
         <v>22.360001</v>
@@ -7613,10 +7613,10 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>7.392</v>
+        <v>7.391999999999999</v>
       </c>
       <c r="J128" t="n">
-        <v>934.3855016857615</v>
+        <v>965.6177348517994</v>
       </c>
       <c r="K128" t="n">
         <v>27.92</v>
@@ -7660,19 +7660,19 @@
         <v>0.4</v>
       </c>
       <c r="F129" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>10.34800000000001</v>
+        <v>17.498</v>
       </c>
       <c r="H129" t="n">
-        <v>32.1</v>
+        <v>47.8</v>
       </c>
       <c r="I129" t="n">
         <v>7.193999999999903</v>
       </c>
       <c r="J129" t="n">
-        <v>-700.9288090037699</v>
+        <v>-523.8181195198633</v>
       </c>
       <c r="K129" t="n">
         <v>37.200001</v>
@@ -7716,19 +7716,19 @@
         <v>0.4</v>
       </c>
       <c r="F130" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>10.34800000000001</v>
+        <v>17.498</v>
       </c>
       <c r="H130" t="n">
-        <v>44.6</v>
+        <v>47.8</v>
       </c>
       <c r="I130" t="n">
         <v>7.193999999999903</v>
       </c>
       <c r="J130" t="n">
-        <v>-631.8862329631594</v>
+        <v>-538.4143888535452</v>
       </c>
       <c r="K130" t="n">
         <v>30.92</v>
@@ -7766,7 +7766,7 @@
         <v>125</v>
       </c>
       <c r="D131" t="n">
-        <v>8.799999999999979</v>
+        <v>47.8</v>
       </c>
       <c r="E131" t="n">
         <v>0.4</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>-145.5113049999999</v>
+        <v>-705.3585401741246</v>
       </c>
       <c r="K131" t="n">
         <v>24.4</v>
@@ -7822,7 +7822,7 @@
         <v>125</v>
       </c>
       <c r="D132" t="n">
-        <v>27.89999999999999</v>
+        <v>47.8</v>
       </c>
       <c r="E132" t="n">
         <v>0.4</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>-153.1513049999999</v>
+        <v>-1564.802612589004</v>
       </c>
       <c r="K132" t="n">
         <v>22.35</v>
@@ -7878,7 +7878,7 @@
         <v>125</v>
       </c>
       <c r="D133" t="n">
-        <v>28.99999999999999</v>
+        <v>44.90000000000001</v>
       </c>
       <c r="E133" t="n">
         <v>0.4</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>-153.2034001740146</v>
+        <v>-159.9513050000001</v>
       </c>
       <c r="K133" t="n">
         <v>20.68</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>702.3456808067182</v>
+        <v>-1128.423719005699</v>
       </c>
       <c r="K134" t="n">
         <v>19.91</v>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>1049.2546560818</v>
+        <v>-1265.147210635001</v>
       </c>
       <c r="K135" t="n">
         <v>19.40001</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>438.1327609648058</v>
+        <v>880.9463191303311</v>
       </c>
       <c r="K136" t="n">
         <v>16.15</v>
@@ -8117,10 +8117,10 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>6.816000000000017</v>
+        <v>12.009</v>
       </c>
       <c r="J137" t="n">
-        <v>634.9621228637152</v>
+        <v>-863.3526304187579</v>
       </c>
       <c r="K137" t="n">
         <v>17.299999</v>
@@ -8173,10 +8173,10 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>6.816000000000017</v>
+        <v>12.009</v>
       </c>
       <c r="J138" t="n">
-        <v>488.8460005023375</v>
+        <v>264.5272559282974</v>
       </c>
       <c r="K138" t="n">
         <v>18.1</v>
@@ -8223,7 +8223,7 @@
         <v>47.8</v>
       </c>
       <c r="G139" t="n">
-        <v>9.404999999999998</v>
+        <v>9.404999999999916</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8232,7 +8232,7 @@
         <v>12.009</v>
       </c>
       <c r="J139" t="n">
-        <v>732.9799050127112</v>
+        <v>142.793365656114</v>
       </c>
       <c r="K139" t="n">
         <v>22.85</v>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>14.41599999999999</v>
+        <v>14.416</v>
       </c>
       <c r="H140" t="n">
         <v>47.8</v>
@@ -8288,7 +8288,7 @@
         <v>6.248999999999967</v>
       </c>
       <c r="J140" t="n">
-        <v>-471.0447426638752</v>
+        <v>-327.5355660264536</v>
       </c>
       <c r="K140" t="n">
         <v>25.68</v>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>9.404999999999916</v>
+        <v>14.416</v>
       </c>
       <c r="H141" t="n">
         <v>47.8</v>
@@ -8344,7 +8344,7 @@
         <v>6.248999999999967</v>
       </c>
       <c r="J141" t="n">
-        <v>-267.2699901020149</v>
+        <v>-141.371253051444</v>
       </c>
       <c r="K141" t="n">
         <v>26.49</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>14.422</v>
+        <v>14.416</v>
       </c>
       <c r="H142" t="n">
         <v>47.8</v>
@@ -8400,7 +8400,7 @@
         <v>6.248999999999967</v>
       </c>
       <c r="J142" t="n">
-        <v>-169.1049879380045</v>
+        <v>-123.1555544365012</v>
       </c>
       <c r="K142" t="n">
         <v>25.790001</v>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>12.322</v>
+        <v>14.41599999999999</v>
       </c>
       <c r="H143" t="n">
         <v>47.8</v>
@@ -8456,7 +8456,7 @@
         <v>8.353999999999985</v>
       </c>
       <c r="J143" t="n">
-        <v>-222.7390728166667</v>
+        <v>-222.7390728166679</v>
       </c>
       <c r="K143" t="n">
         <v>25.969999</v>
@@ -8512,7 +8512,7 @@
         <v>8.353999999999985</v>
       </c>
       <c r="J144" t="n">
-        <v>-240.6251650332427</v>
+        <v>-240.6251650332412</v>
       </c>
       <c r="K144" t="n">
         <v>24.16</v>
@@ -8568,7 +8568,7 @@
         <v>12.53100000000001</v>
       </c>
       <c r="J145" t="n">
-        <v>-438.7905743593163</v>
+        <v>-438.7905743593176</v>
       </c>
       <c r="K145" t="n">
         <v>22.32</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1945.283347140809</v>
+        <v>1942.603884529183</v>
       </c>
       <c r="K147" t="n">
         <v>19.440001</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1610.508349398593</v>
+        <v>1836.802446838547</v>
       </c>
       <c r="K150" t="n">
         <v>19</v>
@@ -8895,16 +8895,16 @@
         <v>47.8</v>
       </c>
       <c r="G151" t="n">
-        <v>14.55699999999999</v>
+        <v>14.55699999999996</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>15.715</v>
+        <v>14.59200000000002</v>
       </c>
       <c r="J151" t="n">
-        <v>772.9543963319954</v>
+        <v>927.9395836975655</v>
       </c>
       <c r="K151" t="n">
         <v>18.9</v>
@@ -8960,7 +8960,7 @@
         <v>14.49</v>
       </c>
       <c r="J152" t="n">
-        <v>521.8946914158088</v>
+        <v>-139.8071976413565</v>
       </c>
       <c r="K152" t="n">
         <v>19.33</v>
@@ -9013,10 +9013,10 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>6.737</v>
+        <v>7.152999999999999</v>
       </c>
       <c r="J153" t="n">
-        <v>60.3396240553955</v>
+        <v>-147.1955768098402</v>
       </c>
       <c r="K153" t="n">
         <v>19.860001</v>
@@ -9069,10 +9069,10 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>7.153</v>
+        <v>7.152999999999999</v>
       </c>
       <c r="J154" t="n">
-        <v>-13.2065176061429</v>
+        <v>-771.6061710153373</v>
       </c>
       <c r="K154" t="n">
         <v>20</v>
@@ -9110,7 +9110,7 @@
         <v>125</v>
       </c>
       <c r="D155" t="n">
-        <v>23</v>
+        <v>47.8</v>
       </c>
       <c r="E155" t="n">
         <v>0.4</v>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>-148.1846770000001</v>
+        <v>-481.5321242626958</v>
       </c>
       <c r="K155" t="n">
         <v>19.1</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>-441.1489684656791</v>
+        <v>-2147.14462247168</v>
       </c>
       <c r="K156" t="n">
         <v>18.5</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>-887.8232628232854</v>
+        <v>-752.4551144296266</v>
       </c>
       <c r="K157" t="n">
         <v>18.110001</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>-1096.579955103902</v>
+        <v>-2007.205773875681</v>
       </c>
       <c r="K158" t="n">
         <v>15</v>
@@ -9352,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>-1614.884468716095</v>
+        <v>-1697.205641141531</v>
       </c>
       <c r="K159" t="n">
         <v>14.9</v>
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>-1432.772409032314</v>
+        <v>-1223.508975392395</v>
       </c>
       <c r="K160" t="n">
         <v>15.3</v>
@@ -9461,10 +9461,10 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>6.27</v>
+        <v>11.959</v>
       </c>
       <c r="J161" t="n">
-        <v>-2441.614910307006</v>
+        <v>-1618.483028019538</v>
       </c>
       <c r="K161" t="n">
         <v>15.84</v>
@@ -9517,10 +9517,10 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>6.27</v>
+        <v>11.959</v>
       </c>
       <c r="J162" t="n">
-        <v>-2140.739424546878</v>
+        <v>-1156.314809792633</v>
       </c>
       <c r="K162" t="n">
         <v>17.5</v>
@@ -9567,16 +9567,16 @@
         <v>47.8</v>
       </c>
       <c r="G163" t="n">
-        <v>9.762000000000008</v>
+        <v>9.762</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>6.27</v>
+        <v>11.959</v>
       </c>
       <c r="J163" t="n">
-        <v>-1496.539671076154</v>
+        <v>-117.9026466307631</v>
       </c>
       <c r="K163" t="n">
         <v>18.5</v>
@@ -9620,19 +9620,19 @@
         <v>0.4</v>
       </c>
       <c r="F164" t="n">
-        <v>47.8</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>10.433</v>
+        <v>10.43299999999999</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="I164" t="n">
-        <v>6.45</v>
+        <v>6.206999999999994</v>
       </c>
       <c r="J164" t="n">
-        <v>-745.6822942263371</v>
+        <v>-521.1931207727607</v>
       </c>
       <c r="K164" t="n">
         <v>21.93</v>
@@ -9676,19 +9676,19 @@
         <v>0.4</v>
       </c>
       <c r="F165" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>10.433</v>
+        <v>14.41600000000001</v>
       </c>
       <c r="H165" t="n">
-        <v>32.2</v>
+        <v>47.8</v>
       </c>
       <c r="I165" t="n">
         <v>6.206999999999994</v>
       </c>
       <c r="J165" t="n">
-        <v>-602.3391401406502</v>
+        <v>-150.949364179395</v>
       </c>
       <c r="K165" t="n">
         <v>24.870001</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>10.43299999999999</v>
+        <v>14.41600000000001</v>
       </c>
       <c r="H166" t="n">
         <v>47.8</v>
@@ -9744,7 +9744,7 @@
         <v>6.206999999999994</v>
       </c>
       <c r="J166" t="n">
-        <v>-383.1009528910029</v>
+        <v>-148.5686333706935</v>
       </c>
       <c r="K166" t="n">
         <v>25.959999</v>
@@ -9791,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>14.424</v>
+        <v>14.41600000000001</v>
       </c>
       <c r="H167" t="n">
         <v>47.8</v>
@@ -9800,7 +9800,7 @@
         <v>8.298000000000002</v>
       </c>
       <c r="J167" t="n">
-        <v>-261.5922640348782</v>
+        <v>-261.5922640348791</v>
       </c>
       <c r="K167" t="n">
         <v>24.42</v>
@@ -9847,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>14.424</v>
+        <v>14.41600000000001</v>
       </c>
       <c r="H168" t="n">
         <v>47.8</v>
@@ -9856,7 +9856,7 @@
         <v>8.298000000000002</v>
       </c>
       <c r="J168" t="n">
-        <v>-259.1843654549555</v>
+        <v>-259.1843654549565</v>
       </c>
       <c r="K168" t="n">
         <v>24.85</v>
@@ -9909,10 +9909,10 @@
         <v>47.8</v>
       </c>
       <c r="I169" t="n">
-        <v>12.397</v>
+        <v>12.39699999999999</v>
       </c>
       <c r="J169" t="n">
-        <v>-461.1401676957231</v>
+        <v>-461.1401676957242</v>
       </c>
       <c r="K169" t="n">
         <v>23.59999</v>
